--- a/CodeReviewChecklist.xlsx
+++ b/CodeReviewChecklist.xlsx
@@ -23,9 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
   <si>
-    <t>Not Set</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>Performance</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -343,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -422,36 +422,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color auto="1"/>
@@ -488,34 +458,8 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -523,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -535,25 +479,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -573,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -601,18 +533,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="310">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFF2C6E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -942,6 +874,3933 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2C6E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2C6E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2C6E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2C6E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2C6E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2C6E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2C6E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2C6E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2C6E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2C6E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2C6E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2C6E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2C6E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2C6E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2C6E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1253,7 +5112,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1263,8 +5122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1275,21 +5134,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.6" customHeight="1" thickTop="1">
-      <c r="A1" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
+      <c r="A1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -1297,405 +5156,405 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>39</v>
+      <c r="B3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>39</v>
+      <c r="B4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>39</v>
+      <c r="B5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>39</v>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>0</v>
+      <c r="B7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>0</v>
+      <c r="B8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>0</v>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>0</v>
+      <c r="B10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>0</v>
+      <c r="B11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>0</v>
+      <c r="B12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>0</v>
+      <c r="B13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>0</v>
+      <c r="B14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>0</v>
+      <c r="B15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="6">
         <v>1</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>0</v>
+      <c r="B18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6">
         <v>2</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>0</v>
+      <c r="B19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6">
         <v>3</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>0</v>
+      <c r="B20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="6">
         <v>1</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>0</v>
+      <c r="B23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6">
         <v>2</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>0</v>
+      <c r="B24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6">
         <v>3</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>0</v>
+      <c r="B25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6">
         <v>4</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>0</v>
+      <c r="B26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:3" ht="21">
       <c r="A28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="6">
         <v>1</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>0</v>
+      <c r="B29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="6">
         <v>2</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>0</v>
+      <c r="B30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="6">
         <v>3</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>0</v>
+      <c r="B31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="6">
         <v>4</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>0</v>
+      <c r="B32" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6">
         <v>5</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>0</v>
+      <c r="B33" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="6">
         <v>6</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>0</v>
+      <c r="B34" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
     </row>
     <row r="36" spans="1:3" ht="21">
       <c r="A36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A37" s="22">
+      <c r="A37" s="18">
         <v>1</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>0</v>
+      <c r="B37" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="6">
         <v>2</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>0</v>
+      <c r="B38" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="6">
         <v>3</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>0</v>
+      <c r="B39" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="6">
         <v>4</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>0</v>
+      <c r="B40" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A41" s="11">
+      <c r="A41" s="9">
         <v>5</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>0</v>
+      <c r="B41" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickTop="1"/>
@@ -1707,90 +5566,132 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A16:C16"/>
   </mergeCells>
-  <conditionalFormatting sqref="C29:C34 C3:C15 C37:C41 C23:C26 C18:C20">
-    <cfRule type="cellIs" dxfId="23" priority="1471" operator="equal">
+  <conditionalFormatting sqref="C3:C15 C18:C20 C23:C26 C29:C34 C37:C41">
+    <cfRule type="cellIs" dxfId="277" priority="1484" operator="equal">
       <formula>$L$6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="1472">
+    <cfRule type="expression" dxfId="276" priority="1485">
       <formula>NOT(ISERROR(SEARCH("Finding",C3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="1473">
+    <cfRule type="expression" dxfId="275" priority="1486">
       <formula>NOT(ISERROR(SEARCH("Finding",C3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="1474" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="1487" operator="equal">
       <formula>$L$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C34 C3:C15 C37:C41 C23:C26 C18:C20">
-    <cfRule type="expression" dxfId="19" priority="1456">
+  <conditionalFormatting sqref="C3:C15 C18:C20 C23:C26 C29:C34 C37:C41">
+    <cfRule type="expression" dxfId="273" priority="1469">
       <formula>NOT(ISERROR(SEARCH("No Issue",C3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="1457">
+    <cfRule type="expression" dxfId="272" priority="1470">
       <formula>NOT(ISERROR(SEARCH("No Issue",C3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="1458">
+    <cfRule type="expression" dxfId="271" priority="1471">
       <formula>NOT(ISERROR(SEARCH("Finding",C3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="1459" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="1472" operator="equal">
       <formula>$L$6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="1460">
+    <cfRule type="expression" dxfId="269" priority="1473">
       <formula>NOT(ISERROR(SEARCH("Finding",C3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="1461">
+    <cfRule type="expression" dxfId="268" priority="1474">
       <formula>NOT(ISERROR(SEARCH("Finding",C3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="1462" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="1475" operator="equal">
       <formula>$L$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C34 C3:C15 C37:C41 C23:C26 C18:C20">
-    <cfRule type="expression" dxfId="12" priority="1454">
+  <conditionalFormatting sqref="C3:C15 C18:C20 C23:C26 C29:C34 C37:C41">
+    <cfRule type="expression" dxfId="266" priority="1467">
       <formula>NOT(ISERROR(SEARCH("Finding",C3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="1455">
+    <cfRule type="expression" dxfId="265" priority="1468">
       <formula>NOT(ISERROR(SEARCH("Finding",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C34 C3:C15 C37:C41 C23:C26 C18:C20">
-    <cfRule type="cellIs" dxfId="10" priority="1441" operator="equal">
+  <conditionalFormatting sqref="C3:C15 C18:C20 C23:C26 C29:C34 C37:C41">
+    <cfRule type="cellIs" dxfId="264" priority="1454" operator="equal">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="1442" operator="containsText" text="Not Set">
+    <cfRule type="containsText" dxfId="263" priority="1455" operator="containsText" text="Not Set">
       <formula>NOT(ISERROR(SEARCH("Not Set",C3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="1447">
+    <cfRule type="expression" dxfId="262" priority="1460">
       <formula>NOT(ISERROR(SEARCH("No Issue",C3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="1448">
+    <cfRule type="expression" dxfId="261" priority="1461">
       <formula>NOT(ISERROR(SEARCH("No Issue",C3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="1449">
+    <cfRule type="expression" dxfId="260" priority="1462">
       <formula>NOT(ISERROR(SEARCH("Finding",C3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1450" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="1463" operator="equal">
       <formula>$L$6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1451">
+    <cfRule type="expression" dxfId="258" priority="1464">
       <formula>NOT(ISERROR(SEARCH("Finding",C3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1452">
+    <cfRule type="expression" dxfId="257" priority="1465">
       <formula>NOT(ISERROR(SEARCH("Finding",C3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1453" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="1466" operator="equal">
       <formula>$L$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Yes">
+  <conditionalFormatting sqref="C3:C15">
+    <cfRule type="containsText" dxfId="255" priority="15" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="254" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="253" priority="12" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="containsText" dxfId="252" priority="9" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",D20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C20">
+    <cfRule type="containsText" dxfId="176" priority="7" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="8" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C26">
+    <cfRule type="containsText" dxfId="127" priority="5" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="6" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:C34">
+    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C41">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C15 C18:C20 C29:C34 C23:C26 C37:C41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C34 C3:C15 C23:C26 C18:C20 C37:C41">
       <formula1>"No Issue, Finding, n/a, Not Set,Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1813,38 +5714,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39.6" customHeight="1">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1870,66 +5771,66 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
